--- a/project/web/excel/corporation_temple.xlsx
+++ b/project/web/excel/corporation_temple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\docker\project\web\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461992F2-DC04-4742-81F2-ED8D9504FF09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B8B1D2-3076-4011-A367-405E8B70D39F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>公司名称</t>
   </si>
@@ -113,6 +113,10 @@
   </si>
   <si>
     <t>注册资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +170,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +193,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -219,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -264,6 +274,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -608,7 +621,7 @@
     <col min="31" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
@@ -698,6 +711,9 @@
       </c>
       <c r="AD1" s="8" t="s">
         <v>25</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
